--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1169.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1169.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8505867373943178</v>
+        <v>1.16645348072052</v>
       </c>
       <c r="B1">
-        <v>1.159182902649106</v>
+        <v>2.43521785736084</v>
       </c>
       <c r="C1">
-        <v>1.986797020475711</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.367369651794434</v>
       </c>
       <c r="E1">
-        <v>2.100571028667492</v>
+        <v>1.234577894210815</v>
       </c>
     </row>
   </sheetData>
